--- a/data/03032.xlsx
+++ b/data/03032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -631,6 +631,43 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>03032</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ASTRA</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03032.xlsx
+++ b/data/03032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +668,43 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03032</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ASTRA</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/03032.xlsx
+++ b/data/03032.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,6 +705,43 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>03032</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ASTRA</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
